--- a/analyses/trees/Chaq/Chaq_Seq_IDs.xlsx
+++ b/analyses/trees/Chaq/Chaq_Seq_IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/diverse_collections/analyses/trees/Chaq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/diverse_collections/github/analyses/trees/Chaq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B968383F-6F24-6641-B73E-79E7D8DAA4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E15F4F23-1FA1-9544-8285-D1F550E9165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47620" yWindow="660" windowWidth="20860" windowHeight="20780" xr2:uid="{CABCAD94-9EAC-A04D-81FC-60523DFF2B09}"/>
+    <workbookView xWindow="33080" yWindow="500" windowWidth="15880" windowHeight="19400" xr2:uid="{CABCAD94-9EAC-A04D-81FC-60523DFF2B09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="184">
   <si>
     <t>D_mel_USA_2021_mel-21-MDS-9_Chaq_virus_Complete_CDS</t>
   </si>
@@ -569,18 +569,12 @@
     <t>California</t>
   </si>
   <si>
-    <t>SRX10234784</t>
-  </si>
-  <si>
     <t>Maine</t>
   </si>
   <si>
     <t>Ohio</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Pennsylvania</t>
   </si>
   <si>
@@ -591,6 +585,9 @@
   </si>
   <si>
     <t>simulans</t>
+  </si>
+  <si>
+    <t>PV185880</t>
   </si>
 </sst>
 </file>
@@ -964,13 +961,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BE16B9-83EF-2E42-A6CA-A756C8FEFDB1}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1004,7 +1002,7 @@
         <v>2021</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1021,7 +1019,7 @@
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1038,7 +1036,7 @@
         <v>2023</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1055,7 +1053,7 @@
         <v>2023</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,7 +1070,7 @@
         <v>2023</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1089,7 +1087,7 @@
         <v>2023</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1106,7 +1104,7 @@
         <v>2023</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1123,7 +1121,7 @@
         <v>2023</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1140,7 +1138,7 @@
         <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1157,7 +1155,7 @@
         <v>2023</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1174,7 +1172,7 @@
         <v>2023</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1191,7 +1189,7 @@
         <v>2023</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1208,7 +1206,7 @@
         <v>2023</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1225,7 +1223,7 @@
         <v>2023</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1242,7 +1240,7 @@
         <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1259,7 +1257,7 @@
         <v>2023</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1276,7 +1274,7 @@
         <v>2023</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1293,7 +1291,7 @@
         <v>2023</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1310,7 +1308,7 @@
         <v>2023</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1327,7 +1325,7 @@
         <v>2023</v>
       </c>
       <c r="E21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1344,7 +1342,7 @@
         <v>2023</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1361,7 +1359,7 @@
         <v>2023</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1378,7 +1376,7 @@
         <v>2023</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1395,7 +1393,7 @@
         <v>2023</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1412,7 +1410,7 @@
         <v>2023</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1429,7 +1427,7 @@
         <v>2023</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1446,7 +1444,7 @@
         <v>2023</v>
       </c>
       <c r="E28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1463,7 +1461,7 @@
         <v>2023</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1480,7 +1478,7 @@
         <v>2023</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1497,7 +1495,7 @@
         <v>2023</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1514,7 +1512,7 @@
         <v>2023</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1531,7 +1529,7 @@
         <v>2023</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1548,7 +1546,7 @@
         <v>2023</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1565,7 +1563,7 @@
         <v>2023</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1576,13 +1574,13 @@
         <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36">
         <v>2023</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1593,13 +1591,13 @@
         <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D37">
         <v>2023</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1610,13 +1608,13 @@
         <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D38">
         <v>2023</v>
       </c>
       <c r="E38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1627,13 +1625,13 @@
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1644,13 +1642,13 @@
         <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1661,13 +1659,13 @@
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1678,13 +1676,13 @@
         <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D42">
         <v>2023</v>
       </c>
       <c r="E42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1695,13 +1693,13 @@
         <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D43">
         <v>2023</v>
       </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1712,13 +1710,13 @@
         <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D44">
         <v>2023</v>
       </c>
       <c r="E44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1735,7 +1733,7 @@
         <v>2023</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1746,13 +1744,13 @@
         <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D46">
         <v>2023</v>
       </c>
       <c r="E46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1763,13 +1761,13 @@
         <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D47">
         <v>2023</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1780,13 +1778,13 @@
         <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D48">
         <v>2023</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1797,13 +1795,13 @@
         <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D49">
         <v>2023</v>
       </c>
       <c r="E49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1814,13 +1812,13 @@
         <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D50">
         <v>2023</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,13 +1829,13 @@
         <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D51">
         <v>2023</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1848,13 +1846,13 @@
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D52">
         <v>2023</v>
       </c>
       <c r="E52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1865,13 +1863,13 @@
         <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D53">
         <v>2023</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1882,13 +1880,13 @@
         <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D54">
         <v>2023</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1899,13 +1897,13 @@
         <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D55">
         <v>2023</v>
       </c>
       <c r="E55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1916,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D56">
         <v>2023</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1933,13 +1931,13 @@
         <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57">
         <v>2023</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1950,13 +1948,13 @@
         <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58">
         <v>2023</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1967,13 +1965,13 @@
         <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59">
         <v>2023</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1984,13 +1982,13 @@
         <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60">
         <v>2023</v>
       </c>
       <c r="E60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2001,13 +1999,13 @@
         <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61">
         <v>2023</v>
       </c>
       <c r="E61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2018,13 +2016,13 @@
         <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62">
         <v>2023</v>
       </c>
       <c r="E62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2038,7 +2036,7 @@
         <v>2008</v>
       </c>
       <c r="E63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2052,7 +2050,7 @@
         <v>2008</v>
       </c>
       <c r="E64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
@@ -2066,7 +2064,7 @@
         <v>2008</v>
       </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -2080,7 +2078,7 @@
         <v>2008</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
@@ -2094,7 +2092,7 @@
         <v>2008</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
@@ -2108,7 +2106,7 @@
         <v>2017</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
@@ -2122,7 +2120,7 @@
         <v>2018</v>
       </c>
       <c r="E69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -2136,7 +2134,7 @@
         <v>2018</v>
       </c>
       <c r="E70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
@@ -2150,7 +2148,7 @@
         <v>2018</v>
       </c>
       <c r="E71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
@@ -2164,7 +2162,7 @@
         <v>2018</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
@@ -2178,7 +2176,7 @@
         <v>2018</v>
       </c>
       <c r="E73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
@@ -2192,7 +2190,7 @@
         <v>2018</v>
       </c>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
@@ -2206,7 +2204,7 @@
         <v>2018</v>
       </c>
       <c r="E75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -2220,7 +2218,7 @@
         <v>2018</v>
       </c>
       <c r="E76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
@@ -2234,7 +2232,7 @@
         <v>2018</v>
       </c>
       <c r="E77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -2248,7 +2246,7 @@
         <v>2018</v>
       </c>
       <c r="E78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -2262,7 +2260,7 @@
         <v>2018</v>
       </c>
       <c r="E79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
@@ -2276,7 +2274,7 @@
         <v>2020</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
@@ -2290,7 +2288,7 @@
         <v>2020</v>
       </c>
       <c r="E81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
@@ -2304,7 +2302,7 @@
         <v>2020</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
@@ -2318,7 +2316,7 @@
         <v>2020</v>
       </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
@@ -2332,7 +2330,7 @@
         <v>2021</v>
       </c>
       <c r="E84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
@@ -2346,7 +2344,7 @@
         <v>2021</v>
       </c>
       <c r="E85" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -2360,7 +2358,7 @@
         <v>2021</v>
       </c>
       <c r="E86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
@@ -2374,7 +2372,7 @@
         <v>2021</v>
       </c>
       <c r="E87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
@@ -2388,7 +2386,7 @@
         <v>2021</v>
       </c>
       <c r="E88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
@@ -2402,7 +2400,7 @@
         <v>2021</v>
       </c>
       <c r="E89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
@@ -2416,7 +2414,7 @@
         <v>2021</v>
       </c>
       <c r="E90" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
@@ -2430,7 +2428,7 @@
         <v>2021</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -2444,7 +2442,7 @@
         <v>2021</v>
       </c>
       <c r="E92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
@@ -2458,7 +2456,7 @@
         <v>2021</v>
       </c>
       <c r="E93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
@@ -2472,7 +2470,7 @@
         <v>2021</v>
       </c>
       <c r="E94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
@@ -2486,7 +2484,7 @@
         <v>2021</v>
       </c>
       <c r="E95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
@@ -2500,7 +2498,7 @@
         <v>2021</v>
       </c>
       <c r="E96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2514,7 +2512,7 @@
         <v>2021</v>
       </c>
       <c r="E97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2528,7 +2526,7 @@
         <v>2021</v>
       </c>
       <c r="E98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2542,7 +2540,7 @@
         <v>2021</v>
       </c>
       <c r="E99" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2556,7 +2554,7 @@
         <v>2021</v>
       </c>
       <c r="E100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2570,7 +2568,7 @@
         <v>2021</v>
       </c>
       <c r="E101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2584,7 +2582,7 @@
         <v>2021</v>
       </c>
       <c r="E102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2598,7 +2596,7 @@
         <v>2021</v>
       </c>
       <c r="E103" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2612,7 +2610,7 @@
         <v>1930</v>
       </c>
       <c r="E104" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2626,7 +2624,7 @@
         <v>1919</v>
       </c>
       <c r="E105" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2640,15 +2638,15 @@
         <v>2000</v>
       </c>
       <c r="E106" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" t="s">
         <v>166</v>
-      </c>
-      <c r="B107" t="s">
-        <v>177</v>
       </c>
       <c r="C107" t="s">
         <v>173</v>
@@ -2657,7 +2655,7 @@
         <v>2018</v>
       </c>
       <c r="E107" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
